--- a/public/reports/sales_report.xlsx
+++ b/public/reports/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
   <si>
     <t>Order ID</t>
   </si>
@@ -34,25 +34,124 @@
     <t>Coupon Discount</t>
   </si>
   <si>
+    <t>ID174099203488129</t>
+  </si>
+  <si>
+    <t>ashmil (ashmil@gmail.com)</t>
+  </si>
+  <si>
+    <t>3/3/2025</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>₹1700.00</t>
+  </si>
+  <si>
+    <t>₹300.00</t>
+  </si>
+  <si>
+    <t>₹0.00</t>
+  </si>
+  <si>
+    <t>ID1740991680874397</t>
+  </si>
+  <si>
+    <t>ID174099157098270</t>
+  </si>
+  <si>
+    <t>₹8075.00</t>
+  </si>
+  <si>
+    <t>₹1500.00</t>
+  </si>
+  <si>
+    <t>₹425.00</t>
+  </si>
+  <si>
+    <t>ID1740981436154861</t>
+  </si>
+  <si>
+    <t>shamrin (shmrn271@gmail.com)</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>₹7225.00</t>
+  </si>
+  <si>
+    <t>₹1274.00</t>
+  </si>
+  <si>
+    <t>ID1740981200862353</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>ID1740941956858811</t>
   </si>
   <si>
-    <t>ashmil (ashmil@gmail.com)</t>
-  </si>
-  <si>
-    <t>3/3/2025</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>₹1700.00</t>
-  </si>
-  <si>
-    <t>₹300.00</t>
-  </si>
-  <si>
-    <t>₹0.00</t>
+    <t>ID1740939374624131</t>
+  </si>
+  <si>
+    <t>3/2/2025</t>
+  </si>
+  <si>
+    <t>ID1740939198115669</t>
+  </si>
+  <si>
+    <t>₹8999.00</t>
+  </si>
+  <si>
+    <t>ID1740938875159314</t>
+  </si>
+  <si>
+    <t>ID1740906817909240</t>
+  </si>
+  <si>
+    <t>₹8499.00</t>
+  </si>
+  <si>
+    <t>ID1740906776483483</t>
+  </si>
+  <si>
+    <t>ID1740906688423199</t>
+  </si>
+  <si>
+    <t>₹9000.00</t>
+  </si>
+  <si>
+    <t>₹1000.00</t>
+  </si>
+  <si>
+    <t>ID1740906640838689</t>
+  </si>
+  <si>
+    <t>ID1740905994504317</t>
+  </si>
+  <si>
+    <t>ID1740905039043982</t>
+  </si>
+  <si>
+    <t>ID1740857720960297</t>
+  </si>
+  <si>
+    <t>₹7650.00</t>
+  </si>
+  <si>
+    <t>₹1349.00</t>
+  </si>
+  <si>
+    <t>ID1740857611071152</t>
+  </si>
+  <si>
+    <t>ID1740857555774516</t>
+  </si>
+  <si>
+    <t>₹12000.00</t>
   </si>
 </sst>
 </file>
@@ -429,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G19"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -483,6 +582,397 @@
         <v>13</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/reports/sales_report.xlsx
+++ b/public/reports/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Order ID</t>
   </si>
@@ -34,124 +34,49 @@
     <t>Coupon Discount</t>
   </si>
   <si>
-    <t>ID174099203488129</t>
+    <t>ID174126561344125</t>
   </si>
   <si>
     <t>ashmil (ashmil@gmail.com)</t>
   </si>
   <si>
-    <t>3/3/2025</t>
-  </si>
-  <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
-    <t>₹1700.00</t>
+    <t>3/6/2025</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>₹8999.00</t>
+  </si>
+  <si>
+    <t>₹0.00</t>
+  </si>
+  <si>
+    <t>ID1741265524627492</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>₹1750.00</t>
   </si>
   <si>
     <t>₹300.00</t>
   </si>
   <si>
-    <t>₹0.00</t>
-  </si>
-  <si>
-    <t>ID1740991680874397</t>
-  </si>
-  <si>
-    <t>ID174099157098270</t>
-  </si>
-  <si>
-    <t>₹8075.00</t>
-  </si>
-  <si>
-    <t>₹1500.00</t>
-  </si>
-  <si>
-    <t>₹425.00</t>
-  </si>
-  <si>
-    <t>ID1740981436154861</t>
-  </si>
-  <si>
-    <t>shamrin (shmrn271@gmail.com)</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>₹7225.00</t>
-  </si>
-  <si>
-    <t>₹1274.00</t>
-  </si>
-  <si>
-    <t>ID1740981200862353</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>ID1740941956858811</t>
-  </si>
-  <si>
-    <t>ID1740939374624131</t>
-  </si>
-  <si>
-    <t>3/2/2025</t>
-  </si>
-  <si>
-    <t>ID1740939198115669</t>
-  </si>
-  <si>
-    <t>₹8999.00</t>
-  </si>
-  <si>
-    <t>ID1740938875159314</t>
-  </si>
-  <si>
-    <t>ID1740906817909240</t>
-  </si>
-  <si>
-    <t>₹8499.00</t>
-  </si>
-  <si>
-    <t>ID1740906776483483</t>
-  </si>
-  <si>
-    <t>ID1740906688423199</t>
-  </si>
-  <si>
-    <t>₹9000.00</t>
-  </si>
-  <si>
-    <t>₹1000.00</t>
-  </si>
-  <si>
-    <t>ID1740906640838689</t>
-  </si>
-  <si>
-    <t>ID1740905994504317</t>
-  </si>
-  <si>
-    <t>ID1740905039043982</t>
-  </si>
-  <si>
-    <t>ID1740857720960297</t>
-  </si>
-  <si>
-    <t>₹7650.00</t>
-  </si>
-  <si>
-    <t>₹1349.00</t>
-  </si>
-  <si>
-    <t>ID1740857611071152</t>
-  </si>
-  <si>
-    <t>ID1740857555774516</t>
-  </si>
-  <si>
-    <t>₹12000.00</t>
+    <t>ID1741263213409902</t>
+  </si>
+  <si>
+    <t>₹10699.00</t>
+  </si>
+  <si>
+    <t>ID1741262570116321</t>
+  </si>
+  <si>
+    <t>₹3450.00</t>
+  </si>
+  <si>
+    <t>₹600.00</t>
   </si>
 </sst>
 </file>
@@ -528,7 +453,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -579,12 +504,12 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -593,21 +518,21 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -616,16 +541,16 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -633,344 +558,22 @@
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
       <c r="G5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
         <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/public/reports/sales_report.xlsx
+++ b/public/reports/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Order ID</t>
   </si>
@@ -34,49 +34,22 @@
     <t>Coupon Discount</t>
   </si>
   <si>
-    <t>ID174126561344125</t>
+    <t>ID1741667165209418</t>
   </si>
   <si>
     <t>ashmil (ashmil@gmail.com)</t>
   </si>
   <si>
-    <t>3/6/2025</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>₹8999.00</t>
+    <t>3/11/2025</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>₹15998.00</t>
   </si>
   <si>
     <t>₹0.00</t>
-  </si>
-  <si>
-    <t>ID1741265524627492</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>₹1750.00</t>
-  </si>
-  <si>
-    <t>₹300.00</t>
-  </si>
-  <si>
-    <t>ID1741263213409902</t>
-  </si>
-  <si>
-    <t>₹10699.00</t>
-  </si>
-  <si>
-    <t>ID1741262570116321</t>
-  </si>
-  <si>
-    <t>₹3450.00</t>
-  </si>
-  <si>
-    <t>₹600.00</t>
   </si>
 </sst>
 </file>
@@ -453,7 +426,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -507,75 +480,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/reports/sales_report.xlsx
+++ b/public/reports/sales_report.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="187">
   <si>
     <t>Order ID</t>
   </si>
@@ -34,22 +34,544 @@
     <t>Coupon Discount</t>
   </si>
   <si>
-    <t>ID1741667165209418</t>
+    <t>ID1742192492559273</t>
+  </si>
+  <si>
+    <t>ashmil aws (ashmilahammedaws@gmail.com)</t>
+  </si>
+  <si>
+    <t>3/17/2025</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>₹47849.00</t>
+  </si>
+  <si>
+    <t>₹4650.00</t>
+  </si>
+  <si>
+    <t>₹3000.00</t>
+  </si>
+  <si>
+    <t>ID1742071190545484</t>
   </si>
   <si>
     <t>ashmil (ashmil@gmail.com)</t>
   </si>
   <si>
+    <t>3/16/2025</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>₹29097.00</t>
+  </si>
+  <si>
+    <t>₹900.00</t>
+  </si>
+  <si>
+    <t>₹1500.00</t>
+  </si>
+  <si>
+    <t>ID1742068781784970</t>
+  </si>
+  <si>
+    <t>₹3450.00</t>
+  </si>
+  <si>
+    <t>₹600.00</t>
+  </si>
+  <si>
+    <t>₹0.00</t>
+  </si>
+  <si>
+    <t>ID1742068170190172</t>
+  </si>
+  <si>
+    <t>₹1665.00</t>
+  </si>
+  <si>
+    <t>₹300.00</t>
+  </si>
+  <si>
+    <t>₹85.00</t>
+  </si>
+  <si>
+    <t>ID1742061213792468</t>
+  </si>
+  <si>
+    <t>3/15/2025</t>
+  </si>
+  <si>
+    <t>₹1750.00</t>
+  </si>
+  <si>
+    <t>ID1741946115054916</t>
+  </si>
+  <si>
+    <t>3/14/2025</t>
+  </si>
+  <si>
+    <t>ID1741945696573506</t>
+  </si>
+  <si>
+    <t>ID1741928914666777</t>
+  </si>
+  <si>
+    <t>ID1741927294840622</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>₹8500.00</t>
+  </si>
+  <si>
+    <t>ID174192572972062</t>
+  </si>
+  <si>
+    <t>₹1323.00</t>
+  </si>
+  <si>
+    <t>₹427.00</t>
+  </si>
+  <si>
+    <t>ID1741925065672302</t>
+  </si>
+  <si>
+    <t>₹38149.00</t>
+  </si>
+  <si>
+    <t>₹3350.00</t>
+  </si>
+  <si>
+    <t>ID1741924032829619</t>
+  </si>
+  <si>
+    <t>₹22050.00</t>
+  </si>
+  <si>
+    <t>₹2450.00</t>
+  </si>
+  <si>
+    <t>ID1741923934052350</t>
+  </si>
+  <si>
+    <t>₹28897.00</t>
+  </si>
+  <si>
+    <t>ID1741855132709458</t>
+  </si>
+  <si>
+    <t>3/13/2025</t>
+  </si>
+  <si>
+    <t>ID1741850203659443</t>
+  </si>
+  <si>
+    <t>ID1741849386144296</t>
+  </si>
+  <si>
+    <t>ID1741849353678438</t>
+  </si>
+  <si>
+    <t>₹7999.00</t>
+  </si>
+  <si>
+    <t>ID174184932318411</t>
+  </si>
+  <si>
+    <t>ID1741849289421967</t>
+  </si>
+  <si>
+    <t>ID1741849233872168</t>
+  </si>
+  <si>
+    <t>₹8999.00</t>
+  </si>
+  <si>
+    <t>ID174184919572936</t>
+  </si>
+  <si>
+    <t>ID1741849142225137</t>
+  </si>
+  <si>
+    <t>ID174184908255177</t>
+  </si>
+  <si>
+    <t>ID1741849055899986</t>
+  </si>
+  <si>
+    <t>ID174184901448972</t>
+  </si>
+  <si>
+    <t>ID1741848969652269</t>
+  </si>
+  <si>
+    <t>ID1741848913467727</t>
+  </si>
+  <si>
+    <t>ID174184887160249</t>
+  </si>
+  <si>
+    <t>ID1741848816715405</t>
+  </si>
+  <si>
+    <t>ID1741771741831741</t>
+  </si>
+  <si>
+    <t>3/12/2025</t>
+  </si>
+  <si>
+    <t>₹6999.00</t>
+  </si>
+  <si>
+    <t>₹1000.00</t>
+  </si>
+  <si>
+    <t>ID1741757526649380</t>
+  </si>
+  <si>
+    <t>₹71000.00</t>
+  </si>
+  <si>
+    <t>₹8000.00</t>
+  </si>
+  <si>
+    <t>ID1741679181632776</t>
+  </si>
+  <si>
     <t>3/11/2025</t>
   </si>
   <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>₹15998.00</t>
-  </si>
-  <si>
-    <t>₹0.00</t>
+    <t>ID1741678384315610</t>
+  </si>
+  <si>
+    <t>ID1741677249345227</t>
+  </si>
+  <si>
+    <t>ID1741676608520293</t>
+  </si>
+  <si>
+    <t>ID1741676550516778</t>
+  </si>
+  <si>
+    <t>ID1741675008720993</t>
+  </si>
+  <si>
+    <t>ID1741540685156921</t>
+  </si>
+  <si>
+    <t>3/9/2025</t>
+  </si>
+  <si>
+    <t>ID1741540427356220</t>
+  </si>
+  <si>
+    <t>₹39999.00</t>
+  </si>
+  <si>
+    <t>₹4000.00</t>
+  </si>
+  <si>
+    <t>ID174151491003459</t>
+  </si>
+  <si>
+    <t>₹70.00</t>
+  </si>
+  <si>
+    <t>₹2.20</t>
+  </si>
+  <si>
+    <t>ID1741510770888805</t>
+  </si>
+  <si>
+    <t>ID1741510556416522</t>
+  </si>
+  <si>
+    <t>₹1770.00</t>
+  </si>
+  <si>
+    <t>₹302.20</t>
+  </si>
+  <si>
+    <t>ID1741461419903280</t>
+  </si>
+  <si>
+    <t>₹44995.00</t>
+  </si>
+  <si>
+    <t>ID1741433331797414</t>
+  </si>
+  <si>
+    <t>3/8/2025</t>
+  </si>
+  <si>
+    <t>ID1741433262822607</t>
+  </si>
+  <si>
+    <t>ID174143295572524</t>
+  </si>
+  <si>
+    <t>ID1741432901733436</t>
+  </si>
+  <si>
+    <t>ID1741432138534266</t>
+  </si>
+  <si>
+    <t>₹17499.00</t>
+  </si>
+  <si>
+    <t>ID1741432079105371</t>
+  </si>
+  <si>
+    <t>₹8499.00</t>
+  </si>
+  <si>
+    <t>ID1741372479529282</t>
+  </si>
+  <si>
+    <t>ID1741372453778113</t>
+  </si>
+  <si>
+    <t>ID1741365790768723</t>
+  </si>
+  <si>
+    <t>3/7/2025</t>
+  </si>
+  <si>
+    <t>ID1741347036704742</t>
+  </si>
+  <si>
+    <t>₹22500.00</t>
+  </si>
+  <si>
+    <t>₹2500.00</t>
+  </si>
+  <si>
+    <t>ID1741346244026200</t>
+  </si>
+  <si>
+    <t>₹9200.00</t>
+  </si>
+  <si>
+    <t>₹1300.00</t>
+  </si>
+  <si>
+    <t>ID1741345851095123</t>
+  </si>
+  <si>
+    <t>₹21999.00</t>
+  </si>
+  <si>
+    <t>ID1741344397994641</t>
+  </si>
+  <si>
+    <t>ID1741344109694425</t>
+  </si>
+  <si>
+    <t>ID1741339530260707</t>
+  </si>
+  <si>
+    <t>ID1741339430839401</t>
+  </si>
+  <si>
+    <t>ID1741339097421448</t>
+  </si>
+  <si>
+    <t>ID174133890461424</t>
+  </si>
+  <si>
+    <t>ID1741338696774476</t>
+  </si>
+  <si>
+    <t>ID174133770119757</t>
+  </si>
+  <si>
+    <t>ID174132659942819</t>
+  </si>
+  <si>
+    <t>₹12000.00</t>
+  </si>
+  <si>
+    <t>ID174126561344125</t>
+  </si>
+  <si>
+    <t>3/6/2025</t>
+  </si>
+  <si>
+    <t>ID1741265524627492</t>
+  </si>
+  <si>
+    <t>ID1741263213409902</t>
+  </si>
+  <si>
+    <t>₹10699.00</t>
+  </si>
+  <si>
+    <t>ID1741262570116321</t>
+  </si>
+  <si>
+    <t>ID174120119089384</t>
+  </si>
+  <si>
+    <t>ID1741200671709520</t>
+  </si>
+  <si>
+    <t>ID1741200223647848</t>
+  </si>
+  <si>
+    <t>ID1741199735711914</t>
+  </si>
+  <si>
+    <t>₹35496.00</t>
+  </si>
+  <si>
+    <t>ID1741197607093459</t>
+  </si>
+  <si>
+    <t>3/5/2025</t>
+  </si>
+  <si>
+    <t>ID1741196615951286</t>
+  </si>
+  <si>
+    <t>ID1741153232909997</t>
+  </si>
+  <si>
+    <t>ID1741153040122653</t>
+  </si>
+  <si>
+    <t>ID1741151529848948</t>
+  </si>
+  <si>
+    <t>ID1741150582757789</t>
+  </si>
+  <si>
+    <t>ID1741150509741539</t>
+  </si>
+  <si>
+    <t>₹1950.00</t>
+  </si>
+  <si>
+    <t>ID1741150391057728</t>
+  </si>
+  <si>
+    <t>ID1741150122577317</t>
+  </si>
+  <si>
+    <t>₹1700.00</t>
+  </si>
+  <si>
+    <t>ID1740998854001764</t>
+  </si>
+  <si>
+    <t>3/3/2025</t>
+  </si>
+  <si>
+    <t>ID1740998815889319</t>
+  </si>
+  <si>
+    <t>ID1740997441177936</t>
+  </si>
+  <si>
+    <t>ID1740997137603783</t>
+  </si>
+  <si>
+    <t>ID1740996250670343</t>
+  </si>
+  <si>
+    <t>₹13950.00</t>
+  </si>
+  <si>
+    <t>₹1550.00</t>
+  </si>
+  <si>
+    <t>ID174099597957998</t>
+  </si>
+  <si>
+    <t>ID174099203488129</t>
+  </si>
+  <si>
+    <t>ID1740991680874397</t>
+  </si>
+  <si>
+    <t>ID174099157098270</t>
+  </si>
+  <si>
+    <t>₹8075.00</t>
+  </si>
+  <si>
+    <t>₹425.00</t>
+  </si>
+  <si>
+    <t>ID1740981436154861</t>
+  </si>
+  <si>
+    <t>shamrin (shmrn271@gmail.com)</t>
+  </si>
+  <si>
+    <t>₹7225.00</t>
+  </si>
+  <si>
+    <t>₹1274.00</t>
+  </si>
+  <si>
+    <t>ID1740981200862353</t>
+  </si>
+  <si>
+    <t>ID1740941956858811</t>
+  </si>
+  <si>
+    <t>ID1740939374624131</t>
+  </si>
+  <si>
+    <t>3/2/2025</t>
+  </si>
+  <si>
+    <t>ID1740939198115669</t>
+  </si>
+  <si>
+    <t>ID1740938875159314</t>
+  </si>
+  <si>
+    <t>ID1740906817909240</t>
+  </si>
+  <si>
+    <t>ID1740906776483483</t>
+  </si>
+  <si>
+    <t>ID1740906688423199</t>
+  </si>
+  <si>
+    <t>₹9000.00</t>
+  </si>
+  <si>
+    <t>ID1740906640838689</t>
+  </si>
+  <si>
+    <t>ID1740905994504317</t>
+  </si>
+  <si>
+    <t>ID1740905039043982</t>
+  </si>
+  <si>
+    <t>ID1740857720960297</t>
+  </si>
+  <si>
+    <t>₹7650.00</t>
+  </si>
+  <si>
+    <t>₹1349.00</t>
+  </si>
+  <si>
+    <t>ID1740857611071152</t>
+  </si>
+  <si>
+    <t>ID1740857555774516</t>
   </si>
 </sst>
 </file>
@@ -426,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G106"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
@@ -477,7 +999,2399 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+      <c r="F25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" t="s">
+        <v>75</v>
+      </c>
+      <c r="G32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>59</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>31</v>
+      </c>
+      <c r="F42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>93</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
+      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>102</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" t="s">
+        <v>72</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>104</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>105</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" t="s">
+        <v>31</v>
+      </c>
+      <c r="F51" t="s">
+        <v>27</v>
+      </c>
+      <c r="G51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" t="s">
+        <v>105</v>
+      </c>
+      <c r="F52" t="s">
+        <v>24</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F53" t="s">
+        <v>27</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+      <c r="F57" t="s">
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" t="s">
+        <v>27</v>
+      </c>
+      <c r="G58" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="E59" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" t="s">
+        <v>27</v>
+      </c>
+      <c r="G59" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>109</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F61" t="s">
+        <v>27</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62" t="s">
+        <v>27</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>109</v>
+      </c>
+      <c r="D63" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+      <c r="F63" t="s">
+        <v>27</v>
+      </c>
+      <c r="G63" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>109</v>
+      </c>
+      <c r="D64" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64" t="s">
+        <v>27</v>
+      </c>
+      <c r="G64" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D66" t="s">
+        <v>17</v>
+      </c>
+      <c r="E66" t="s">
+        <v>59</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>31</v>
+      </c>
+      <c r="F67" t="s">
+        <v>27</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>129</v>
+      </c>
+      <c r="D70" t="s">
+        <v>17</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70" t="s">
+        <v>27</v>
+      </c>
+      <c r="G70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" t="s">
+        <v>27</v>
+      </c>
+      <c r="G71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>136</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>37</v>
+      </c>
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72" t="s">
+        <v>27</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>137</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+      <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" t="s">
+        <v>37</v>
+      </c>
+      <c r="E74" t="s">
+        <v>31</v>
+      </c>
+      <c r="F74" t="s">
+        <v>27</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>140</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+      <c r="E75" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+      <c r="G75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>142</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" t="s">
+        <v>27</v>
+      </c>
+      <c r="G76" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>140</v>
+      </c>
+      <c r="D77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77" t="s">
+        <v>27</v>
+      </c>
+      <c r="G77" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>144</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" t="s">
+        <v>37</v>
+      </c>
+      <c r="E78" t="s">
+        <v>31</v>
+      </c>
+      <c r="F78" t="s">
+        <v>27</v>
+      </c>
+      <c r="G78" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" t="s">
+        <v>140</v>
+      </c>
+      <c r="D79" t="s">
+        <v>37</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>27</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>140</v>
+      </c>
+      <c r="D80" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" t="s">
+        <v>147</v>
+      </c>
+      <c r="F80" t="s">
+        <v>27</v>
+      </c>
+      <c r="G80" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>140</v>
+      </c>
+      <c r="D81" t="s">
+        <v>37</v>
+      </c>
+      <c r="E81" t="s">
+        <v>147</v>
+      </c>
+      <c r="F81" t="s">
+        <v>27</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>150</v>
+      </c>
+      <c r="F82" t="s">
+        <v>27</v>
+      </c>
+      <c r="G82" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" t="s">
+        <v>152</v>
+      </c>
+      <c r="D83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" t="s">
+        <v>59</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>152</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>59</v>
+      </c>
+      <c r="F84" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>154</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>152</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>150</v>
+      </c>
+      <c r="F85" t="s">
+        <v>27</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>155</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>152</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" t="s">
+        <v>158</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>159</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>157</v>
+      </c>
+      <c r="F88" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>152</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>150</v>
+      </c>
+      <c r="F89" t="s">
+        <v>27</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>152</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>150</v>
+      </c>
+      <c r="F90" t="s">
+        <v>27</v>
+      </c>
+      <c r="G90" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>152</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>163</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>165</v>
+      </c>
+      <c r="B92" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" t="s">
+        <v>152</v>
+      </c>
+      <c r="D92" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>152</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
+        <v>150</v>
+      </c>
+      <c r="F93" t="s">
+        <v>27</v>
+      </c>
+      <c r="G93" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>170</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>150</v>
+      </c>
+      <c r="F94" t="s">
+        <v>27</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>171</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>173</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>172</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" t="s">
+        <v>24</v>
+      </c>
+      <c r="G96" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" t="s">
+        <v>10</v>
+      </c>
+      <c r="E97" t="s">
+        <v>150</v>
+      </c>
+      <c r="F97" t="s">
+        <v>27</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>175</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>105</v>
+      </c>
+      <c r="F98" t="s">
+        <v>24</v>
+      </c>
+      <c r="G98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>176</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>172</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>150</v>
+      </c>
+      <c r="F99" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>177</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>172</v>
+      </c>
+      <c r="D100" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" t="s">
+        <v>178</v>
+      </c>
+      <c r="F100" t="s">
+        <v>72</v>
+      </c>
+      <c r="G100" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>179</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" t="s">
+        <v>24</v>
+      </c>
+      <c r="G101" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>181</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>172</v>
+      </c>
+      <c r="D103" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>150</v>
+      </c>
+      <c r="F103" t="s">
+        <v>27</v>
+      </c>
+      <c r="G103" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>182</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" t="s">
+        <v>183</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>185</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>172</v>
+      </c>
+      <c r="D105" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" t="s">
+        <v>59</v>
+      </c>
+      <c r="F105" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>186</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>172</v>
+      </c>
+      <c r="D106" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" t="s">
+        <v>127</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
